--- a/Plots/MohitPlots/mouse_dataset_random_CM.xlsx
+++ b/Plots/MohitPlots/mouse_dataset_random_CM.xlsx
@@ -568,7 +568,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -787,7 +787,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
